--- a/tests/resources/datasets/basic/basic.xlsx
+++ b/tests/resources/datasets/basic/basic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chstansbury/PycharmProjects/python-arpes/tests/resources/datasets/basic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875ECF58-5008-2B4F-BB9D-E30CF126D7EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC6B84D-18E9-A94A-856D-674591F67F1C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22240" yWindow="3020" windowWidth="11360" windowHeight="17440" xr2:uid="{E32A2714-7D35-6143-A83A-F7F7F52C59F1}"/>
+    <workbookView xWindow="62680" yWindow="-8340" windowWidth="11360" windowHeight="17440" xr2:uid="{E32A2714-7D35-6143-A83A-F7F7F52C59F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>file</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>MAESTRO SPEM Data</t>
+  </si>
+  <si>
+    <t>MAESTRO Nano-ARPES focus capillary</t>
+  </si>
+  <si>
+    <t>BL7-nano</t>
   </si>
 </sst>
 </file>
@@ -454,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBCCEE5D-E658-1147-BB3A-38273D647FAE}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -624,6 +630,17 @@
         <v>22</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
